--- a/data/136/ISTAT/Labour positions.xlsx
+++ b/data/136/ISTAT/Labour positions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="512">
   <si>
     <t>Select time</t>
   </si>
@@ -805,6 +805,12 @@
     <t>Oct-2021</t>
   </si>
   <si>
+    <t>Nov-2021</t>
+  </si>
+  <si>
+    <t>Dec-2021</t>
+  </si>
+  <si>
     <t>Nace Rev.2</t>
   </si>
   <si>
@@ -1541,6 +1547,9 @@
   </si>
   <si>
     <t>97.9</t>
+  </si>
+  <si>
+    <t>98.6</t>
   </si>
 </sst>
 </file>
@@ -1898,15 +1907,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:JD7"/>
+  <dimension ref="A1:JF7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:264">
+    <row r="1" spans="1:266">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2697,3183 +2706,3213 @@
       <c r="JD1" s="1" t="s">
         <v>262</v>
       </c>
+      <c r="JE1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
-    <row r="2" spans="1:264">
+    <row r="2" spans="1:266">
       <c r="A2" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="R2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="S2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="T2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="U2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="V2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="W2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="X2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Y2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Z2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AA2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AB2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AC2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AD2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AE2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AG2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AH2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AI2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AJ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AK2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AM2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AN2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AO2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AP2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AQ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AR2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AS2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AT2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AU2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AV2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AW2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AX2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AY2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AZ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BA2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BB2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BC2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BD2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BE2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BF2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BG2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BH2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BI2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BJ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BK2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BL2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BM2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BN2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BO2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BP2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BQ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BR2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BS2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BT2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BU2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BV2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BW2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BX2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BY2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BZ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CA2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CB2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CC2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CD2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CE2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CF2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CG2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CH2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CI2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CJ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CK2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CL2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CM2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CN2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CO2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CP2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CQ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CR2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CS2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CT2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CU2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CV2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CW2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CX2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CY2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CZ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DA2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DB2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DC2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DD2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DE2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DF2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DG2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DH2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DI2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DJ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DK2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DL2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DM2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DN2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DO2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DP2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DQ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DR2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DS2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DT2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DU2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DV2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DW2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DX2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DY2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DZ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EA2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EB2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EC2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="ED2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EE2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EF2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EG2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EH2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EI2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EJ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EK2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EL2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EM2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EN2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EO2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EP2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EQ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="ER2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="ES2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="ET2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EU2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EV2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EW2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EX2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EY2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EZ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FA2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FB2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FC2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FD2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FE2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FF2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FG2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FH2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FI2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FJ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FK2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FL2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FM2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FN2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FO2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FP2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FQ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FR2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FS2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FT2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FU2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FV2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FW2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FX2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FY2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="FZ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GA2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GB2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GC2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GD2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GE2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GF2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GG2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GH2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GI2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GJ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GK2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GL2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GM2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GN2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GO2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GP2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GQ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GR2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GS2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GT2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GU2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GV2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GW2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GX2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GY2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GZ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HA2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HB2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HC2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HD2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HE2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HF2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HG2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HH2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HI2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HJ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HK2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HL2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HM2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HN2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HO2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HP2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HQ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HR2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HS2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HT2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HU2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HV2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HW2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HX2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HY2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HZ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IA2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IB2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IC2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="ID2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IE2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IF2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IG2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IH2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="II2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IJ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IK2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IL2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IM2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IN2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IO2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IP2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IQ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IR2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IS2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IT2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IU2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IV2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IW2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IX2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IY2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="IZ2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="JA2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="JB2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="JC2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="JD2" t="s">
-        <v>269</v>
+        <v>271</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>271</v>
+      </c>
+      <c r="JF2" t="s">
+        <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:264">
+    <row r="3" spans="1:266">
       <c r="A3" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="R3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="S3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="T3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="U3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="V3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="W3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="X3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Y3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Z3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AA3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AB3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AC3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AD3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AE3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AF3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AG3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AH3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AI3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AJ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AK3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AL3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AM3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AN3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AO3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AP3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AQ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AR3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AS3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AT3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AU3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AV3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AW3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AX3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AY3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AZ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BA3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BB3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BC3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BD3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BE3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BF3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BG3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BH3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BI3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BJ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BK3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BL3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BM3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BN3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BO3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BP3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BQ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BR3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BS3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BT3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BU3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BV3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BW3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BX3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BY3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BZ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CA3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CB3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CC3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CD3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CE3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CF3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CG3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CH3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CI3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CJ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CK3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CL3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CM3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CN3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CO3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CP3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CQ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CR3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CS3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CT3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CU3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CV3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CW3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CX3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CY3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CZ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DA3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DB3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DC3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DD3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DE3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DF3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DG3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DH3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DI3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DJ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DK3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DL3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DM3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DN3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DO3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DP3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DQ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DR3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DS3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DT3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DU3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DV3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DW3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DX3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DY3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DZ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="EA3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="EB3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="EC3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ED3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="EE3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="EF3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="EG3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="EH3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="EI3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="EJ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="EK3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="EL3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="EM3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="EN3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="EO3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="EP3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="EQ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ER3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ES3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ET3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="EU3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="EV3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="EW3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="EX3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="EY3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="EZ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FA3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FB3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FC3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FD3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FE3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FF3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FG3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FH3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FI3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FJ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FK3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FL3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FM3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FN3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FO3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FP3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FQ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FR3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FS3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FT3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FU3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FV3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FW3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FX3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FY3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="FZ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GA3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GB3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GC3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GD3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GE3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GF3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GG3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GH3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GI3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GJ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GK3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GL3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GM3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GN3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GO3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GP3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GQ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GR3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GS3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GT3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GU3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GV3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GW3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GX3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GY3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GZ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HA3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HB3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HC3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HD3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HE3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HF3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HG3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HH3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HI3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HJ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HK3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HL3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HM3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HN3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HO3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HP3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HQ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HR3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HS3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HT3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HU3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HV3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HW3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HX3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HY3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HZ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IA3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IB3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IC3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ID3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IE3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IF3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IG3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IH3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="II3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IJ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IK3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IL3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IM3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IN3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IO3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IP3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IQ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IR3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IS3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IT3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IU3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IV3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IW3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IX3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IY3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IZ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="JA3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="JB3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="JC3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="JD3" t="s">
-        <v>270</v>
+        <v>272</v>
+      </c>
+      <c r="JE3" t="s">
+        <v>272</v>
+      </c>
+      <c r="JF3" t="s">
+        <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:264">
+    <row r="4" spans="1:266">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:264">
+    <row r="5" spans="1:266">
       <c r="A5" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:264">
+    <row r="6" spans="1:266">
       <c r="A6" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" t="s">
         <v>273</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>275</v>
       </c>
-      <c r="F6" t="s">
-        <v>271</v>
-      </c>
-      <c r="G6" t="s">
-        <v>273</v>
-      </c>
       <c r="H6" t="s">
+        <v>281</v>
+      </c>
+      <c r="I6" t="s">
+        <v>282</v>
+      </c>
+      <c r="J6" t="s">
+        <v>284</v>
+      </c>
+      <c r="K6" t="s">
+        <v>285</v>
+      </c>
+      <c r="L6" t="s">
+        <v>287</v>
+      </c>
+      <c r="M6" t="s">
+        <v>289</v>
+      </c>
+      <c r="N6" t="s">
+        <v>290</v>
+      </c>
+      <c r="O6" t="s">
+        <v>292</v>
+      </c>
+      <c r="P6" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>296</v>
+      </c>
+      <c r="R6" t="s">
+        <v>298</v>
+      </c>
+      <c r="S6" t="s">
+        <v>298</v>
+      </c>
+      <c r="T6" t="s">
+        <v>298</v>
+      </c>
+      <c r="U6" t="s">
+        <v>302</v>
+      </c>
+      <c r="V6" t="s">
+        <v>302</v>
+      </c>
+      <c r="W6" t="s">
+        <v>304</v>
+      </c>
+      <c r="X6" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>319</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>320</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>322</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>324</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>324</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>326</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>327</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>329</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>326</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>329</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>329</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>333</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>334</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>336</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>338</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>340</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>342</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>342</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>340</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>344</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>340</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>345</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>347</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>349</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>351</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>353</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>355</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>357</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>357</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>353</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>361</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>363</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>365</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>367</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>357</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>357</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>370</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>372</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>373</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>372</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>375</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>376</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>351</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>378</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>379</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>381</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>383</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>384</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>384</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>386</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>387</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>388</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>372</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>373</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>375</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>388</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>372</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>390</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>392</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>394</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>390</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>390</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>395</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>394</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>383</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>394</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>395</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>395</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>397</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>399</v>
+      </c>
+      <c r="DG6" t="s">
+        <v>401</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>403</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>405</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>407</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>409</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>411</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>413</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>415</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>416</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>417</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>419</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>420</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>421</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>423</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>424</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>425</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>425</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>424</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>420</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>429</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>431</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>429</v>
+      </c>
+      <c r="ED6" t="s">
+        <v>430</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>435</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>436</v>
+      </c>
+      <c r="EG6" t="s">
+        <v>435</v>
+      </c>
+      <c r="EH6" t="s">
+        <v>438</v>
+      </c>
+      <c r="EI6" t="s">
+        <v>435</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>436</v>
+      </c>
+      <c r="EK6" t="s">
+        <v>428</v>
+      </c>
+      <c r="EL6" t="s">
+        <v>404</v>
+      </c>
+      <c r="EM6" t="s">
+        <v>438</v>
+      </c>
+      <c r="EN6" t="s">
+        <v>414</v>
+      </c>
+      <c r="EO6" t="s">
+        <v>414</v>
+      </c>
+      <c r="EP6" t="s">
+        <v>432</v>
+      </c>
+      <c r="EQ6" t="s">
+        <v>439</v>
+      </c>
+      <c r="ER6" t="s">
+        <v>439</v>
+      </c>
+      <c r="ES6" t="s">
+        <v>445</v>
+      </c>
+      <c r="ET6" t="s">
+        <v>445</v>
+      </c>
+      <c r="EU6" t="s">
+        <v>445</v>
+      </c>
+      <c r="EV6" t="s">
+        <v>445</v>
+      </c>
+      <c r="EW6" t="s">
+        <v>418</v>
+      </c>
+      <c r="EX6" t="s">
+        <v>418</v>
+      </c>
+      <c r="EY6" t="s">
+        <v>450</v>
+      </c>
+      <c r="EZ6" t="s">
+        <v>408</v>
+      </c>
+      <c r="FA6" t="s">
+        <v>441</v>
+      </c>
+      <c r="FB6" t="s">
+        <v>454</v>
+      </c>
+      <c r="FC6" t="s">
+        <v>456</v>
+      </c>
+      <c r="FD6" t="s">
+        <v>457</v>
+      </c>
+      <c r="FE6" t="s">
+        <v>459</v>
+      </c>
+      <c r="FF6" t="s">
+        <v>457</v>
+      </c>
+      <c r="FG6" t="s">
+        <v>457</v>
+      </c>
+      <c r="FH6" t="s">
+        <v>457</v>
+      </c>
+      <c r="FI6" t="s">
+        <v>434</v>
+      </c>
+      <c r="FJ6" t="s">
+        <v>459</v>
+      </c>
+      <c r="FK6" t="s">
+        <v>449</v>
+      </c>
+      <c r="FL6" t="s">
+        <v>443</v>
+      </c>
+      <c r="FM6" t="s">
+        <v>454</v>
+      </c>
+      <c r="FN6" t="s">
+        <v>452</v>
+      </c>
+      <c r="FO6" t="s">
+        <v>467</v>
+      </c>
+      <c r="FP6" t="s">
+        <v>467</v>
+      </c>
+      <c r="FQ6" t="s">
+        <v>448</v>
+      </c>
+      <c r="FR6" t="s">
+        <v>447</v>
+      </c>
+      <c r="FS6" t="s">
+        <v>467</v>
+      </c>
+      <c r="FT6" t="s">
+        <v>469</v>
+      </c>
+      <c r="FU6" t="s">
+        <v>470</v>
+      </c>
+      <c r="FV6" t="s">
+        <v>442</v>
+      </c>
+      <c r="FW6" t="s">
+        <v>447</v>
+      </c>
+      <c r="FX6" t="s">
+        <v>473</v>
+      </c>
+      <c r="FY6" t="s">
+        <v>474</v>
+      </c>
+      <c r="FZ6" t="s">
+        <v>476</v>
+      </c>
+      <c r="GA6" t="s">
+        <v>477</v>
+      </c>
+      <c r="GB6" t="s">
+        <v>479</v>
+      </c>
+      <c r="GC6" t="s">
+        <v>479</v>
+      </c>
+      <c r="GD6" t="s">
+        <v>480</v>
+      </c>
+      <c r="GE6" t="s">
+        <v>482</v>
+      </c>
+      <c r="GF6" t="s">
+        <v>475</v>
+      </c>
+      <c r="GG6" t="s">
+        <v>465</v>
+      </c>
+      <c r="GH6" t="s">
+        <v>461</v>
+      </c>
+      <c r="GI6" t="s">
+        <v>484</v>
+      </c>
+      <c r="GJ6" t="s">
+        <v>466</v>
+      </c>
+      <c r="GK6" t="s">
+        <v>475</v>
+      </c>
+      <c r="GL6" t="s">
+        <v>476</v>
+      </c>
+      <c r="GM6" t="s">
+        <v>455</v>
+      </c>
+      <c r="GN6" t="s">
+        <v>455</v>
+      </c>
+      <c r="GO6" t="s">
+        <v>455</v>
+      </c>
+      <c r="GP6" t="s">
+        <v>480</v>
+      </c>
+      <c r="GQ6" t="s">
+        <v>480</v>
+      </c>
+      <c r="GR6" t="s">
+        <v>477</v>
+      </c>
+      <c r="GS6" t="s">
+        <v>455</v>
+      </c>
+      <c r="GT6" t="s">
+        <v>455</v>
+      </c>
+      <c r="GU6" t="s">
+        <v>486</v>
+      </c>
+      <c r="GV6" t="s">
+        <v>487</v>
+      </c>
+      <c r="GW6" t="s">
+        <v>487</v>
+      </c>
+      <c r="GX6" t="s">
+        <v>488</v>
+      </c>
+      <c r="GY6" t="s">
+        <v>490</v>
+      </c>
+      <c r="GZ6" t="s">
+        <v>491</v>
+      </c>
+      <c r="HA6" t="s">
+        <v>492</v>
+      </c>
+      <c r="HB6" t="s">
+        <v>491</v>
+      </c>
+      <c r="HC6" t="s">
+        <v>487</v>
+      </c>
+      <c r="HD6" t="s">
+        <v>476</v>
+      </c>
+      <c r="HE6" t="s">
+        <v>479</v>
+      </c>
+      <c r="HF6" t="s">
+        <v>477</v>
+      </c>
+      <c r="HG6" t="s">
+        <v>476</v>
+      </c>
+      <c r="HH6" t="s">
+        <v>476</v>
+      </c>
+      <c r="HI6" t="s">
+        <v>476</v>
+      </c>
+      <c r="HJ6" t="s">
+        <v>493</v>
+      </c>
+      <c r="HK6" t="s">
+        <v>478</v>
+      </c>
+      <c r="HL6" t="s">
+        <v>476</v>
+      </c>
+      <c r="HM6" t="s">
+        <v>478</v>
+      </c>
+      <c r="HN6" t="s">
+        <v>486</v>
+      </c>
+      <c r="HO6" t="s">
+        <v>477</v>
+      </c>
+      <c r="HP6" t="s">
+        <v>479</v>
+      </c>
+      <c r="HQ6" t="s">
+        <v>475</v>
+      </c>
+      <c r="HR6" t="s">
+        <v>475</v>
+      </c>
+      <c r="HS6" t="s">
+        <v>455</v>
+      </c>
+      <c r="HT6" t="s">
+        <v>480</v>
+      </c>
+      <c r="HU6" t="s">
+        <v>480</v>
+      </c>
+      <c r="HV6" t="s">
+        <v>478</v>
+      </c>
+      <c r="HW6" t="s">
+        <v>486</v>
+      </c>
+      <c r="HX6" t="s">
+        <v>486</v>
+      </c>
+      <c r="HY6" t="s">
+        <v>476</v>
+      </c>
+      <c r="HZ6" t="s">
+        <v>486</v>
+      </c>
+      <c r="IA6" t="s">
+        <v>496</v>
+      </c>
+      <c r="IB6" t="s">
+        <v>496</v>
+      </c>
+      <c r="IC6" t="s">
+        <v>455</v>
+      </c>
+      <c r="ID6" t="s">
+        <v>477</v>
+      </c>
+      <c r="IE6" t="s">
+        <v>486</v>
+      </c>
+      <c r="IF6" t="s">
+        <v>476</v>
+      </c>
+      <c r="IG6" t="s">
+        <v>476</v>
+      </c>
+      <c r="IH6" t="s">
+        <v>497</v>
+      </c>
+      <c r="II6" t="s">
+        <v>490</v>
+      </c>
+      <c r="IJ6" t="s">
+        <v>490</v>
+      </c>
+      <c r="IK6" t="s">
+        <v>498</v>
+      </c>
+      <c r="IL6" t="s">
+        <v>489</v>
+      </c>
+      <c r="IM6" t="s">
+        <v>489</v>
+      </c>
+      <c r="IN6" t="s">
+        <v>498</v>
+      </c>
+      <c r="IO6" t="s">
+        <v>492</v>
+      </c>
+      <c r="IP6" t="s">
+        <v>490</v>
+      </c>
+      <c r="IQ6" t="s">
+        <v>493</v>
+      </c>
+      <c r="IR6" t="s">
+        <v>506</v>
+      </c>
+      <c r="IS6" t="s">
+        <v>508</v>
+      </c>
+      <c r="IT6" t="s">
+        <v>488</v>
+      </c>
+      <c r="IU6" t="s">
+        <v>506</v>
+      </c>
+      <c r="IV6" t="s">
+        <v>493</v>
+      </c>
+      <c r="IW6" t="s">
+        <v>506</v>
+      </c>
+      <c r="IX6" t="s">
+        <v>493</v>
+      </c>
+      <c r="IY6" t="s">
+        <v>491</v>
+      </c>
+      <c r="IZ6" t="s">
+        <v>491</v>
+      </c>
+      <c r="JA6" t="s">
+        <v>486</v>
+      </c>
+      <c r="JB6" t="s">
+        <v>476</v>
+      </c>
+      <c r="JC6" t="s">
+        <v>492</v>
+      </c>
+      <c r="JD6" t="s">
+        <v>490</v>
+      </c>
+      <c r="JE6" t="s">
+        <v>511</v>
+      </c>
+      <c r="JF6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:266">
+      <c r="A7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" t="s">
         <v>279</v>
       </c>
-      <c r="I6" t="s">
+      <c r="G7" t="s">
         <v>280</v>
       </c>
-      <c r="J6" t="s">
-        <v>282</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="H7" t="s">
+        <v>276</v>
+      </c>
+      <c r="I7" t="s">
         <v>283</v>
       </c>
-      <c r="L6" t="s">
-        <v>285</v>
-      </c>
-      <c r="M6" t="s">
-        <v>287</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="J7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L7" t="s">
         <v>288</v>
       </c>
-      <c r="O6" t="s">
-        <v>290</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="M7" t="s">
+        <v>279</v>
+      </c>
+      <c r="N7" t="s">
+        <v>291</v>
+      </c>
+      <c r="O7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>297</v>
+      </c>
+      <c r="R7" t="s">
+        <v>299</v>
+      </c>
+      <c r="S7" t="s">
+        <v>300</v>
+      </c>
+      <c r="T7" t="s">
+        <v>301</v>
+      </c>
+      <c r="U7" t="s">
+        <v>303</v>
+      </c>
+      <c r="V7" t="s">
+        <v>291</v>
+      </c>
+      <c r="W7" t="s">
+        <v>305</v>
+      </c>
+      <c r="X7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB7" t="s">
         <v>292</v>
       </c>
-      <c r="Q6" t="s">
-        <v>294</v>
-      </c>
-      <c r="R6" t="s">
-        <v>296</v>
-      </c>
-      <c r="S6" t="s">
-        <v>296</v>
-      </c>
-      <c r="T6" t="s">
-        <v>296</v>
-      </c>
-      <c r="U6" t="s">
-        <v>300</v>
-      </c>
-      <c r="V6" t="s">
-        <v>300</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="AC7" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD7" t="s">
         <v>302</v>
       </c>
-      <c r="X6" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA6" t="s">
+      <c r="AE7" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>317</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>302</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>321</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>323</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>325</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>325</v>
+      </c>
+      <c r="AO7" t="s">
         <v>309</v>
       </c>
-      <c r="AB6" t="s">
-        <v>311</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>312</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>312</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>313</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>314</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>311</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>311</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>316</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>317</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>318</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>320</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>322</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>322</v>
-      </c>
-      <c r="AO6" t="s">
+      <c r="AP7" t="s">
+        <v>328</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>309</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>330</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>332</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>331</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>335</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>319</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>326</v>
+      </c>
+      <c r="AY7" t="s">
         <v>324</v>
       </c>
-      <c r="AP6" t="s">
-        <v>325</v>
-      </c>
-      <c r="AQ6" t="s">
+      <c r="AZ7" t="s">
+        <v>339</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>341</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>343</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>341</v>
+      </c>
+      <c r="BD7" t="s">
         <v>327</v>
       </c>
-      <c r="AR6" t="s">
-        <v>324</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>331</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>332</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>334</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>335</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>335</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>336</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>338</v>
-      </c>
-      <c r="BB6" t="s">
+      <c r="BE7" t="s">
+        <v>329</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>339</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>346</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>348</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>350</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>352</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>354</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>356</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>358</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>359</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>360</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>362</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>364</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>366</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>368</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>369</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>358</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>371</v>
+      </c>
+      <c r="BW7" t="s">
         <v>340</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BX7" t="s">
         <v>340</v>
       </c>
-      <c r="BD6" t="s">
-        <v>338</v>
-      </c>
-      <c r="BE6" t="s">
+      <c r="BY7" t="s">
+        <v>374</v>
+      </c>
+      <c r="BZ7" t="s">
         <v>342</v>
       </c>
-      <c r="BF6" t="s">
-        <v>338</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>343</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>345</v>
-      </c>
-      <c r="BI6" t="s">
+      <c r="CA7" t="s">
+        <v>352</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>377</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>358</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>380</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>359</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>337</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>352</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>365</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>342</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>385</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>385</v>
+      </c>
+      <c r="CL7" t="s">
         <v>347</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="CM7" t="s">
+        <v>389</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>389</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>377</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>352</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>352</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>389</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>374</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>391</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>393</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>365</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>361</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>361</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>393</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>365</v>
+      </c>
+      <c r="DA7" t="s">
         <v>349</v>
       </c>
-      <c r="BK6" t="s">
-        <v>351</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>353</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>355</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>355</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>351</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>359</v>
-      </c>
-      <c r="BQ6" t="s">
+      <c r="DB7" t="s">
         <v>361</v>
       </c>
-      <c r="BR6" t="s">
-        <v>363</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>365</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>355</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>355</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>368</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>370</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>371</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>370</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>373</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>374</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>349</v>
-      </c>
-      <c r="CC6" t="s">
-        <v>376</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>377</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>379</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>380</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>380</v>
-      </c>
-      <c r="CH6" t="s">
-        <v>381</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>382</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>382</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>384</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>385</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>370</v>
-      </c>
-      <c r="CO6" t="s">
-        <v>380</v>
-      </c>
-      <c r="CP6" t="s">
-        <v>371</v>
-      </c>
-      <c r="CQ6" t="s">
-        <v>373</v>
-      </c>
-      <c r="CR6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CS6" t="s">
-        <v>370</v>
-      </c>
-      <c r="CT6" t="s">
-        <v>388</v>
-      </c>
-      <c r="CU6" t="s">
-        <v>390</v>
-      </c>
-      <c r="CV6" t="s">
-        <v>392</v>
-      </c>
-      <c r="CW6" t="s">
-        <v>388</v>
-      </c>
-      <c r="CX6" t="s">
-        <v>388</v>
-      </c>
-      <c r="CY6" t="s">
-        <v>393</v>
-      </c>
-      <c r="CZ6" t="s">
-        <v>392</v>
-      </c>
-      <c r="DA6" t="s">
-        <v>381</v>
-      </c>
-      <c r="DB6" t="s">
-        <v>392</v>
-      </c>
-      <c r="DC6" t="s">
-        <v>393</v>
-      </c>
-      <c r="DD6" t="s">
-        <v>393</v>
-      </c>
-      <c r="DE6" t="s">
-        <v>395</v>
-      </c>
-      <c r="DF6" t="s">
-        <v>397</v>
-      </c>
-      <c r="DG6" t="s">
-        <v>399</v>
-      </c>
-      <c r="DH6" t="s">
-        <v>401</v>
-      </c>
-      <c r="DI6" t="s">
-        <v>403</v>
-      </c>
-      <c r="DJ6" t="s">
-        <v>405</v>
-      </c>
-      <c r="DK6" t="s">
-        <v>407</v>
-      </c>
-      <c r="DL6" t="s">
-        <v>409</v>
-      </c>
-      <c r="DM6" t="s">
-        <v>411</v>
-      </c>
-      <c r="DN6" t="s">
-        <v>413</v>
-      </c>
-      <c r="DO6" t="s">
+      <c r="DC7" t="s">
+        <v>396</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>375</v>
+      </c>
+      <c r="DE7" t="s">
+        <v>398</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>400</v>
+      </c>
+      <c r="DG7" t="s">
+        <v>402</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>404</v>
+      </c>
+      <c r="DI7" t="s">
+        <v>406</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>408</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>410</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>412</v>
+      </c>
+      <c r="DM7" t="s">
         <v>414</v>
       </c>
-      <c r="DP6" t="s">
-        <v>415</v>
-      </c>
-      <c r="DQ6" t="s">
-        <v>417</v>
-      </c>
-      <c r="DR6" t="s">
+      <c r="DN7" t="s">
+        <v>404</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>406</v>
+      </c>
+      <c r="DP7" t="s">
         <v>418</v>
       </c>
-      <c r="DS6" t="s">
-        <v>419</v>
-      </c>
-      <c r="DT6" t="s">
-        <v>421</v>
-      </c>
-      <c r="DU6" t="s">
+      <c r="DQ7" t="s">
+        <v>414</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>410</v>
+      </c>
+      <c r="DS7" t="s">
         <v>422</v>
       </c>
-      <c r="DV6" t="s">
-        <v>423</v>
-      </c>
-      <c r="DW6" t="s">
-        <v>423</v>
-      </c>
-      <c r="DX6" t="s">
+      <c r="DT7" t="s">
+        <v>418</v>
+      </c>
+      <c r="DU7" t="s">
         <v>422</v>
       </c>
-      <c r="DY6" t="s">
-        <v>418</v>
-      </c>
-      <c r="DZ6" t="s">
-        <v>418</v>
-      </c>
-      <c r="EA6" t="s">
+      <c r="DV7" t="s">
+        <v>412</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>426</v>
+      </c>
+      <c r="DX7" t="s">
         <v>427</v>
       </c>
-      <c r="EB6" t="s">
-        <v>429</v>
-      </c>
-      <c r="EC6" t="s">
+      <c r="DY7" t="s">
+        <v>404</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>428</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>430</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>432</v>
+      </c>
+      <c r="EC7" t="s">
+        <v>433</v>
+      </c>
+      <c r="ED7" t="s">
+        <v>434</v>
+      </c>
+      <c r="EE7" t="s">
+        <v>433</v>
+      </c>
+      <c r="EF7" t="s">
+        <v>430</v>
+      </c>
+      <c r="EG7" t="s">
+        <v>437</v>
+      </c>
+      <c r="EH7" t="s">
+        <v>408</v>
+      </c>
+      <c r="EI7" t="s">
+        <v>439</v>
+      </c>
+      <c r="EJ7" t="s">
         <v>427</v>
       </c>
-      <c r="ED6" t="s">
-        <v>428</v>
-      </c>
-      <c r="EE6" t="s">
-        <v>433</v>
-      </c>
-      <c r="EF6" t="s">
-        <v>434</v>
-      </c>
-      <c r="EG6" t="s">
-        <v>433</v>
-      </c>
-      <c r="EH6" t="s">
-        <v>436</v>
-      </c>
-      <c r="EI6" t="s">
-        <v>433</v>
-      </c>
-      <c r="EJ6" t="s">
-        <v>434</v>
-      </c>
-      <c r="EK6" t="s">
-        <v>426</v>
-      </c>
-      <c r="EL6" t="s">
-        <v>402</v>
-      </c>
-      <c r="EM6" t="s">
-        <v>436</v>
-      </c>
-      <c r="EN6" t="s">
-        <v>412</v>
-      </c>
-      <c r="EO6" t="s">
-        <v>412</v>
-      </c>
-      <c r="EP6" t="s">
-        <v>430</v>
-      </c>
-      <c r="EQ6" t="s">
+      <c r="EK7" t="s">
+        <v>440</v>
+      </c>
+      <c r="EL7" t="s">
+        <v>404</v>
+      </c>
+      <c r="EM7" t="s">
         <v>437</v>
       </c>
-      <c r="ER6" t="s">
-        <v>437</v>
-      </c>
-      <c r="ES6" t="s">
+      <c r="EN7" t="s">
+        <v>432</v>
+      </c>
+      <c r="EO7" t="s">
+        <v>441</v>
+      </c>
+      <c r="EP7" t="s">
+        <v>442</v>
+      </c>
+      <c r="EQ7" t="s">
         <v>443</v>
       </c>
-      <c r="ET6" t="s">
+      <c r="ER7" t="s">
+        <v>444</v>
+      </c>
+      <c r="ES7" t="s">
+        <v>446</v>
+      </c>
+      <c r="ET7" t="s">
+        <v>447</v>
+      </c>
+      <c r="EU7" t="s">
         <v>443</v>
       </c>
-      <c r="EU6" t="s">
+      <c r="EV7" t="s">
+        <v>448</v>
+      </c>
+      <c r="EW7" t="s">
         <v>443</v>
       </c>
-      <c r="EV6" t="s">
-        <v>443</v>
-      </c>
-      <c r="EW6" t="s">
-        <v>416</v>
-      </c>
-      <c r="EX6" t="s">
-        <v>416</v>
-      </c>
-      <c r="EY6" t="s">
-        <v>448</v>
-      </c>
-      <c r="EZ6" t="s">
-        <v>406</v>
-      </c>
-      <c r="FA6" t="s">
-        <v>439</v>
-      </c>
-      <c r="FB6" t="s">
+      <c r="EX7" t="s">
+        <v>449</v>
+      </c>
+      <c r="EY7" t="s">
+        <v>451</v>
+      </c>
+      <c r="EZ7" t="s">
         <v>452</v>
       </c>
-      <c r="FC6" t="s">
-        <v>454</v>
-      </c>
-      <c r="FD6" t="s">
+      <c r="FA7" t="s">
+        <v>453</v>
+      </c>
+      <c r="FB7" t="s">
         <v>455</v>
       </c>
-      <c r="FE6" t="s">
-        <v>457</v>
-      </c>
-      <c r="FF6" t="s">
+      <c r="FC7" t="s">
+        <v>453</v>
+      </c>
+      <c r="FD7" t="s">
+        <v>458</v>
+      </c>
+      <c r="FE7" t="s">
+        <v>460</v>
+      </c>
+      <c r="FF7" t="s">
+        <v>461</v>
+      </c>
+      <c r="FG7" t="s">
+        <v>462</v>
+      </c>
+      <c r="FH7" t="s">
+        <v>463</v>
+      </c>
+      <c r="FI7" t="s">
+        <v>442</v>
+      </c>
+      <c r="FJ7" t="s">
+        <v>451</v>
+      </c>
+      <c r="FK7" t="s">
+        <v>464</v>
+      </c>
+      <c r="FL7" t="s">
+        <v>464</v>
+      </c>
+      <c r="FM7" t="s">
+        <v>465</v>
+      </c>
+      <c r="FN7" t="s">
+        <v>466</v>
+      </c>
+      <c r="FO7" t="s">
+        <v>461</v>
+      </c>
+      <c r="FP7" t="s">
+        <v>468</v>
+      </c>
+      <c r="FQ7" t="s">
+        <v>463</v>
+      </c>
+      <c r="FR7" t="s">
+        <v>458</v>
+      </c>
+      <c r="FS7" t="s">
+        <v>453</v>
+      </c>
+      <c r="FT7" t="s">
+        <v>453</v>
+      </c>
+      <c r="FU7" t="s">
+        <v>471</v>
+      </c>
+      <c r="FV7" t="s">
+        <v>460</v>
+      </c>
+      <c r="FW7" t="s">
+        <v>472</v>
+      </c>
+      <c r="FX7" t="s">
+        <v>463</v>
+      </c>
+      <c r="FY7" t="s">
+        <v>475</v>
+      </c>
+      <c r="FZ7" t="s">
+        <v>476</v>
+      </c>
+      <c r="GA7" t="s">
+        <v>478</v>
+      </c>
+      <c r="GB7" t="s">
         <v>455</v>
       </c>
-      <c r="FG6" t="s">
+      <c r="GC7" t="s">
+        <v>480</v>
+      </c>
+      <c r="GD7" t="s">
+        <v>481</v>
+      </c>
+      <c r="GE7" t="s">
+        <v>481</v>
+      </c>
+      <c r="GF7" t="s">
+        <v>480</v>
+      </c>
+      <c r="GG7" t="s">
+        <v>468</v>
+      </c>
+      <c r="GH7" t="s">
+        <v>483</v>
+      </c>
+      <c r="GI7" t="s">
+        <v>458</v>
+      </c>
+      <c r="GJ7" t="s">
+        <v>485</v>
+      </c>
+      <c r="GK7" t="s">
+        <v>485</v>
+      </c>
+      <c r="GL7" t="s">
+        <v>476</v>
+      </c>
+      <c r="GM7" t="s">
+        <v>480</v>
+      </c>
+      <c r="GN7" t="s">
+        <v>465</v>
+      </c>
+      <c r="GO7" t="s">
+        <v>484</v>
+      </c>
+      <c r="GP7" t="s">
+        <v>475</v>
+      </c>
+      <c r="GQ7" t="s">
+        <v>468</v>
+      </c>
+      <c r="GR7" t="s">
+        <v>485</v>
+      </c>
+      <c r="GS7" t="s">
+        <v>458</v>
+      </c>
+      <c r="GT7" t="s">
+        <v>483</v>
+      </c>
+      <c r="GU7" t="s">
+        <v>465</v>
+      </c>
+      <c r="GV7" t="s">
+        <v>466</v>
+      </c>
+      <c r="GW7" t="s">
+        <v>475</v>
+      </c>
+      <c r="GX7" t="s">
+        <v>489</v>
+      </c>
+      <c r="GY7" t="s">
+        <v>482</v>
+      </c>
+      <c r="GZ7" t="s">
+        <v>475</v>
+      </c>
+      <c r="HA7" t="s">
+        <v>465</v>
+      </c>
+      <c r="HB7" t="s">
+        <v>466</v>
+      </c>
+      <c r="HC7" t="s">
+        <v>468</v>
+      </c>
+      <c r="HD7" t="s">
+        <v>483</v>
+      </c>
+      <c r="HE7" t="s">
+        <v>460</v>
+      </c>
+      <c r="HF7" t="s">
+        <v>463</v>
+      </c>
+      <c r="HG7" t="s">
+        <v>485</v>
+      </c>
+      <c r="HH7" t="s">
+        <v>458</v>
+      </c>
+      <c r="HI7" t="s">
+        <v>468</v>
+      </c>
+      <c r="HJ7" t="s">
+        <v>486</v>
+      </c>
+      <c r="HK7" t="s">
+        <v>483</v>
+      </c>
+      <c r="HL7" t="s">
+        <v>458</v>
+      </c>
+      <c r="HM7" t="s">
+        <v>461</v>
+      </c>
+      <c r="HN7" t="s">
+        <v>485</v>
+      </c>
+      <c r="HO7" t="s">
+        <v>494</v>
+      </c>
+      <c r="HP7" t="s">
+        <v>463</v>
+      </c>
+      <c r="HQ7" t="s">
+        <v>495</v>
+      </c>
+      <c r="HR7" t="s">
+        <v>473</v>
+      </c>
+      <c r="HS7" t="s">
+        <v>460</v>
+      </c>
+      <c r="HT7" t="s">
+        <v>460</v>
+      </c>
+      <c r="HU7" t="s">
+        <v>494</v>
+      </c>
+      <c r="HV7" t="s">
+        <v>479</v>
+      </c>
+      <c r="HW7" t="s">
+        <v>458</v>
+      </c>
+      <c r="HX7" t="s">
+        <v>468</v>
+      </c>
+      <c r="HY7" t="s">
+        <v>465</v>
+      </c>
+      <c r="HZ7" t="s">
+        <v>482</v>
+      </c>
+      <c r="IA7" t="s">
+        <v>484</v>
+      </c>
+      <c r="IB7" t="s">
+        <v>485</v>
+      </c>
+      <c r="IC7" t="s">
+        <v>453</v>
+      </c>
+      <c r="ID7" t="s">
+        <v>465</v>
+      </c>
+      <c r="IE7" t="s">
+        <v>461</v>
+      </c>
+      <c r="IF7" t="s">
+        <v>484</v>
+      </c>
+      <c r="IG7" t="s">
+        <v>477</v>
+      </c>
+      <c r="IH7" t="s">
+        <v>491</v>
+      </c>
+      <c r="II7" t="s">
         <v>455</v>
       </c>
-      <c r="FH6" t="s">
+      <c r="IJ7" t="s">
+        <v>479</v>
+      </c>
+      <c r="IK7" t="s">
+        <v>499</v>
+      </c>
+      <c r="IL7" t="s">
+        <v>500</v>
+      </c>
+      <c r="IM7" t="s">
+        <v>501</v>
+      </c>
+      <c r="IN7" t="s">
+        <v>502</v>
+      </c>
+      <c r="IO7" t="s">
+        <v>503</v>
+      </c>
+      <c r="IP7" t="s">
+        <v>504</v>
+      </c>
+      <c r="IQ7" t="s">
+        <v>505</v>
+      </c>
+      <c r="IR7" t="s">
+        <v>507</v>
+      </c>
+      <c r="IS7" t="s">
+        <v>505</v>
+      </c>
+      <c r="IT7" t="s">
+        <v>509</v>
+      </c>
+      <c r="IU7" t="s">
+        <v>497</v>
+      </c>
+      <c r="IV7" t="s">
+        <v>487</v>
+      </c>
+      <c r="IW7" t="s">
+        <v>506</v>
+      </c>
+      <c r="IX7" t="s">
+        <v>510</v>
+      </c>
+      <c r="IY7" t="s">
+        <v>498</v>
+      </c>
+      <c r="IZ7" t="s">
+        <v>498</v>
+      </c>
+      <c r="JA7" t="s">
         <v>455</v>
       </c>
-      <c r="FI6" t="s">
-        <v>432</v>
-      </c>
-      <c r="FJ6" t="s">
-        <v>457</v>
-      </c>
-      <c r="FK6" t="s">
-        <v>447</v>
-      </c>
-      <c r="FL6" t="s">
-        <v>441</v>
-      </c>
-      <c r="FM6" t="s">
-        <v>452</v>
-      </c>
-      <c r="FN6" t="s">
-        <v>450</v>
-      </c>
-      <c r="FO6" t="s">
-        <v>465</v>
-      </c>
-      <c r="FP6" t="s">
-        <v>465</v>
-      </c>
-      <c r="FQ6" t="s">
-        <v>446</v>
-      </c>
-      <c r="FR6" t="s">
-        <v>445</v>
-      </c>
-      <c r="FS6" t="s">
-        <v>465</v>
-      </c>
-      <c r="FT6" t="s">
-        <v>467</v>
-      </c>
-      <c r="FU6" t="s">
-        <v>468</v>
-      </c>
-      <c r="FV6" t="s">
-        <v>440</v>
-      </c>
-      <c r="FW6" t="s">
-        <v>445</v>
-      </c>
-      <c r="FX6" t="s">
-        <v>471</v>
-      </c>
-      <c r="FY6" t="s">
-        <v>472</v>
-      </c>
-      <c r="FZ6" t="s">
-        <v>474</v>
-      </c>
-      <c r="GA6" t="s">
-        <v>475</v>
-      </c>
-      <c r="GB6" t="s">
+      <c r="JB7" t="s">
+        <v>480</v>
+      </c>
+      <c r="JC7" t="s">
         <v>477</v>
       </c>
-      <c r="GC6" t="s">
-        <v>477</v>
-      </c>
-      <c r="GD6" t="s">
-        <v>478</v>
-      </c>
-      <c r="GE6" t="s">
-        <v>480</v>
-      </c>
-      <c r="GF6" t="s">
-        <v>473</v>
-      </c>
-      <c r="GG6" t="s">
-        <v>463</v>
-      </c>
-      <c r="GH6" t="s">
-        <v>459</v>
-      </c>
-      <c r="GI6" t="s">
-        <v>482</v>
-      </c>
-      <c r="GJ6" t="s">
-        <v>464</v>
-      </c>
-      <c r="GK6" t="s">
-        <v>473</v>
-      </c>
-      <c r="GL6" t="s">
-        <v>474</v>
-      </c>
-      <c r="GM6" t="s">
-        <v>453</v>
-      </c>
-      <c r="GN6" t="s">
-        <v>453</v>
-      </c>
-      <c r="GO6" t="s">
-        <v>453</v>
-      </c>
-      <c r="GP6" t="s">
-        <v>478</v>
-      </c>
-      <c r="GQ6" t="s">
-        <v>478</v>
-      </c>
-      <c r="GR6" t="s">
-        <v>475</v>
-      </c>
-      <c r="GS6" t="s">
-        <v>453</v>
-      </c>
-      <c r="GT6" t="s">
-        <v>453</v>
-      </c>
-      <c r="GU6" t="s">
-        <v>484</v>
-      </c>
-      <c r="GV6" t="s">
-        <v>485</v>
-      </c>
-      <c r="GW6" t="s">
-        <v>485</v>
-      </c>
-      <c r="GX6" t="s">
-        <v>486</v>
-      </c>
-      <c r="GY6" t="s">
-        <v>488</v>
-      </c>
-      <c r="GZ6" t="s">
-        <v>489</v>
-      </c>
-      <c r="HA6" t="s">
-        <v>490</v>
-      </c>
-      <c r="HB6" t="s">
-        <v>489</v>
-      </c>
-      <c r="HC6" t="s">
-        <v>485</v>
-      </c>
-      <c r="HD6" t="s">
-        <v>474</v>
-      </c>
-      <c r="HE6" t="s">
-        <v>477</v>
-      </c>
-      <c r="HF6" t="s">
-        <v>475</v>
-      </c>
-      <c r="HG6" t="s">
-        <v>474</v>
-      </c>
-      <c r="HH6" t="s">
-        <v>474</v>
-      </c>
-      <c r="HI6" t="s">
-        <v>474</v>
-      </c>
-      <c r="HJ6" t="s">
-        <v>491</v>
-      </c>
-      <c r="HK6" t="s">
-        <v>476</v>
-      </c>
-      <c r="HL6" t="s">
-        <v>474</v>
-      </c>
-      <c r="HM6" t="s">
-        <v>476</v>
-      </c>
-      <c r="HN6" t="s">
-        <v>484</v>
-      </c>
-      <c r="HO6" t="s">
-        <v>475</v>
-      </c>
-      <c r="HP6" t="s">
-        <v>477</v>
-      </c>
-      <c r="HQ6" t="s">
-        <v>473</v>
-      </c>
-      <c r="HR6" t="s">
-        <v>473</v>
-      </c>
-      <c r="HS6" t="s">
-        <v>453</v>
-      </c>
-      <c r="HT6" t="s">
-        <v>478</v>
-      </c>
-      <c r="HU6" t="s">
-        <v>478</v>
-      </c>
-      <c r="HV6" t="s">
-        <v>476</v>
-      </c>
-      <c r="HW6" t="s">
-        <v>484</v>
-      </c>
-      <c r="HX6" t="s">
-        <v>484</v>
-      </c>
-      <c r="HY6" t="s">
-        <v>474</v>
-      </c>
-      <c r="HZ6" t="s">
-        <v>484</v>
-      </c>
-      <c r="IA6" t="s">
-        <v>494</v>
-      </c>
-      <c r="IB6" t="s">
-        <v>494</v>
-      </c>
-      <c r="IC6" t="s">
-        <v>453</v>
-      </c>
-      <c r="ID6" t="s">
-        <v>475</v>
-      </c>
-      <c r="IE6" t="s">
-        <v>484</v>
-      </c>
-      <c r="IF6" t="s">
-        <v>474</v>
-      </c>
-      <c r="IG6" t="s">
-        <v>474</v>
-      </c>
-      <c r="IH6" t="s">
-        <v>495</v>
-      </c>
-      <c r="II6" t="s">
-        <v>488</v>
-      </c>
-      <c r="IJ6" t="s">
-        <v>488</v>
-      </c>
-      <c r="IK6" t="s">
-        <v>496</v>
-      </c>
-      <c r="IL6" t="s">
-        <v>487</v>
-      </c>
-      <c r="IM6" t="s">
-        <v>487</v>
-      </c>
-      <c r="IN6" t="s">
-        <v>496</v>
-      </c>
-      <c r="IO6" t="s">
-        <v>490</v>
-      </c>
-      <c r="IP6" t="s">
-        <v>488</v>
-      </c>
-      <c r="IQ6" t="s">
-        <v>491</v>
-      </c>
-      <c r="IR6" t="s">
-        <v>504</v>
-      </c>
-      <c r="IS6" t="s">
+      <c r="JD7" t="s">
         <v>506</v>
       </c>
-      <c r="IT6" t="s">
-        <v>486</v>
-      </c>
-      <c r="IU6" t="s">
-        <v>504</v>
-      </c>
-      <c r="IV6" t="s">
-        <v>491</v>
-      </c>
-      <c r="IW6" t="s">
-        <v>504</v>
-      </c>
-      <c r="IX6" t="s">
-        <v>491</v>
-      </c>
-      <c r="IY6" t="s">
-        <v>489</v>
-      </c>
-      <c r="IZ6" t="s">
-        <v>489</v>
-      </c>
-      <c r="JA6" t="s">
-        <v>484</v>
-      </c>
-      <c r="JB6" t="s">
-        <v>474</v>
-      </c>
-      <c r="JC6" t="s">
-        <v>490</v>
-      </c>
-      <c r="JD6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="7" spans="1:264">
-      <c r="A7" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D7" t="s">
-        <v>274</v>
-      </c>
-      <c r="E7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H7" t="s">
-        <v>274</v>
-      </c>
-      <c r="I7" t="s">
-        <v>281</v>
-      </c>
-      <c r="J7" t="s">
-        <v>281</v>
-      </c>
-      <c r="K7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L7" t="s">
-        <v>286</v>
-      </c>
-      <c r="M7" t="s">
-        <v>277</v>
-      </c>
-      <c r="N7" t="s">
-        <v>289</v>
-      </c>
-      <c r="O7" t="s">
-        <v>291</v>
-      </c>
-      <c r="P7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>295</v>
-      </c>
-      <c r="R7" t="s">
-        <v>297</v>
-      </c>
-      <c r="S7" t="s">
-        <v>298</v>
-      </c>
-      <c r="T7" t="s">
-        <v>299</v>
-      </c>
-      <c r="U7" t="s">
-        <v>301</v>
-      </c>
-      <c r="V7" t="s">
-        <v>289</v>
-      </c>
-      <c r="W7" t="s">
-        <v>303</v>
-      </c>
-      <c r="X7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>310</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>300</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>300</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>315</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>310</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>300</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>300</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>304</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>319</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>321</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>323</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>323</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>307</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>326</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>307</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>328</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>329</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>330</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>329</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>333</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>317</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>324</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>322</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>337</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>339</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>341</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>339</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>325</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>327</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>337</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>344</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>346</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>348</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>350</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>352</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>354</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>356</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>357</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>358</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>360</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>362</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>364</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>366</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>367</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>356</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>369</v>
-      </c>
-      <c r="BW7" t="s">
-        <v>338</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>338</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>372</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>340</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>350</v>
-      </c>
-      <c r="CB7" t="s">
-        <v>375</v>
-      </c>
-      <c r="CC7" t="s">
-        <v>356</v>
-      </c>
-      <c r="CD7" t="s">
-        <v>378</v>
-      </c>
-      <c r="CE7" t="s">
-        <v>357</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>335</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>350</v>
-      </c>
-      <c r="CH7" t="s">
-        <v>363</v>
-      </c>
-      <c r="CI7" t="s">
-        <v>340</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>383</v>
-      </c>
-      <c r="CK7" t="s">
-        <v>383</v>
-      </c>
-      <c r="CL7" t="s">
-        <v>345</v>
-      </c>
-      <c r="CM7" t="s">
-        <v>387</v>
-      </c>
-      <c r="CN7" t="s">
-        <v>387</v>
-      </c>
-      <c r="CO7" t="s">
-        <v>375</v>
-      </c>
-      <c r="CP7" t="s">
-        <v>350</v>
-      </c>
-      <c r="CQ7" t="s">
-        <v>350</v>
-      </c>
-      <c r="CR7" t="s">
-        <v>387</v>
-      </c>
-      <c r="CS7" t="s">
-        <v>372</v>
-      </c>
-      <c r="CT7" t="s">
-        <v>389</v>
-      </c>
-      <c r="CU7" t="s">
-        <v>391</v>
-      </c>
-      <c r="CV7" t="s">
-        <v>363</v>
-      </c>
-      <c r="CW7" t="s">
-        <v>359</v>
-      </c>
-      <c r="CX7" t="s">
-        <v>359</v>
-      </c>
-      <c r="CY7" t="s">
-        <v>391</v>
-      </c>
-      <c r="CZ7" t="s">
-        <v>363</v>
-      </c>
-      <c r="DA7" t="s">
-        <v>347</v>
-      </c>
-      <c r="DB7" t="s">
-        <v>359</v>
-      </c>
-      <c r="DC7" t="s">
-        <v>394</v>
-      </c>
-      <c r="DD7" t="s">
-        <v>373</v>
-      </c>
-      <c r="DE7" t="s">
-        <v>396</v>
-      </c>
-      <c r="DF7" t="s">
-        <v>398</v>
-      </c>
-      <c r="DG7" t="s">
-        <v>400</v>
-      </c>
-      <c r="DH7" t="s">
-        <v>402</v>
-      </c>
-      <c r="DI7" t="s">
-        <v>404</v>
-      </c>
-      <c r="DJ7" t="s">
-        <v>406</v>
-      </c>
-      <c r="DK7" t="s">
-        <v>408</v>
-      </c>
-      <c r="DL7" t="s">
-        <v>410</v>
-      </c>
-      <c r="DM7" t="s">
-        <v>412</v>
-      </c>
-      <c r="DN7" t="s">
-        <v>402</v>
-      </c>
-      <c r="DO7" t="s">
-        <v>404</v>
-      </c>
-      <c r="DP7" t="s">
-        <v>416</v>
-      </c>
-      <c r="DQ7" t="s">
-        <v>412</v>
-      </c>
-      <c r="DR7" t="s">
-        <v>408</v>
-      </c>
-      <c r="DS7" t="s">
-        <v>420</v>
-      </c>
-      <c r="DT7" t="s">
-        <v>416</v>
-      </c>
-      <c r="DU7" t="s">
-        <v>420</v>
-      </c>
-      <c r="DV7" t="s">
-        <v>410</v>
-      </c>
-      <c r="DW7" t="s">
-        <v>424</v>
-      </c>
-      <c r="DX7" t="s">
-        <v>425</v>
-      </c>
-      <c r="DY7" t="s">
-        <v>402</v>
-      </c>
-      <c r="DZ7" t="s">
-        <v>426</v>
-      </c>
-      <c r="EA7" t="s">
-        <v>428</v>
-      </c>
-      <c r="EB7" t="s">
-        <v>430</v>
-      </c>
-      <c r="EC7" t="s">
-        <v>431</v>
-      </c>
-      <c r="ED7" t="s">
-        <v>432</v>
-      </c>
-      <c r="EE7" t="s">
-        <v>431</v>
-      </c>
-      <c r="EF7" t="s">
-        <v>428</v>
-      </c>
-      <c r="EG7" t="s">
-        <v>435</v>
-      </c>
-      <c r="EH7" t="s">
-        <v>406</v>
-      </c>
-      <c r="EI7" t="s">
-        <v>437</v>
-      </c>
-      <c r="EJ7" t="s">
-        <v>425</v>
-      </c>
-      <c r="EK7" t="s">
-        <v>438</v>
-      </c>
-      <c r="EL7" t="s">
-        <v>402</v>
-      </c>
-      <c r="EM7" t="s">
-        <v>435</v>
-      </c>
-      <c r="EN7" t="s">
-        <v>430</v>
-      </c>
-      <c r="EO7" t="s">
-        <v>439</v>
-      </c>
-      <c r="EP7" t="s">
-        <v>440</v>
-      </c>
-      <c r="EQ7" t="s">
-        <v>441</v>
-      </c>
-      <c r="ER7" t="s">
-        <v>442</v>
-      </c>
-      <c r="ES7" t="s">
-        <v>444</v>
-      </c>
-      <c r="ET7" t="s">
-        <v>445</v>
-      </c>
-      <c r="EU7" t="s">
-        <v>441</v>
-      </c>
-      <c r="EV7" t="s">
-        <v>446</v>
-      </c>
-      <c r="EW7" t="s">
-        <v>441</v>
-      </c>
-      <c r="EX7" t="s">
-        <v>447</v>
-      </c>
-      <c r="EY7" t="s">
-        <v>449</v>
-      </c>
-      <c r="EZ7" t="s">
-        <v>450</v>
-      </c>
-      <c r="FA7" t="s">
-        <v>451</v>
-      </c>
-      <c r="FB7" t="s">
-        <v>453</v>
-      </c>
-      <c r="FC7" t="s">
-        <v>451</v>
-      </c>
-      <c r="FD7" t="s">
-        <v>456</v>
-      </c>
-      <c r="FE7" t="s">
-        <v>458</v>
-      </c>
-      <c r="FF7" t="s">
-        <v>459</v>
-      </c>
-      <c r="FG7" t="s">
-        <v>460</v>
-      </c>
-      <c r="FH7" t="s">
-        <v>461</v>
-      </c>
-      <c r="FI7" t="s">
-        <v>440</v>
-      </c>
-      <c r="FJ7" t="s">
-        <v>449</v>
-      </c>
-      <c r="FK7" t="s">
-        <v>462</v>
-      </c>
-      <c r="FL7" t="s">
-        <v>462</v>
-      </c>
-      <c r="FM7" t="s">
-        <v>463</v>
-      </c>
-      <c r="FN7" t="s">
-        <v>464</v>
-      </c>
-      <c r="FO7" t="s">
-        <v>459</v>
-      </c>
-      <c r="FP7" t="s">
-        <v>466</v>
-      </c>
-      <c r="FQ7" t="s">
-        <v>461</v>
-      </c>
-      <c r="FR7" t="s">
-        <v>456</v>
-      </c>
-      <c r="FS7" t="s">
-        <v>451</v>
-      </c>
-      <c r="FT7" t="s">
-        <v>451</v>
-      </c>
-      <c r="FU7" t="s">
-        <v>469</v>
-      </c>
-      <c r="FV7" t="s">
-        <v>458</v>
-      </c>
-      <c r="FW7" t="s">
-        <v>470</v>
-      </c>
-      <c r="FX7" t="s">
-        <v>461</v>
-      </c>
-      <c r="FY7" t="s">
-        <v>473</v>
-      </c>
-      <c r="FZ7" t="s">
-        <v>474</v>
-      </c>
-      <c r="GA7" t="s">
-        <v>476</v>
-      </c>
-      <c r="GB7" t="s">
-        <v>453</v>
-      </c>
-      <c r="GC7" t="s">
-        <v>478</v>
-      </c>
-      <c r="GD7" t="s">
-        <v>479</v>
-      </c>
-      <c r="GE7" t="s">
-        <v>479</v>
-      </c>
-      <c r="GF7" t="s">
-        <v>478</v>
-      </c>
-      <c r="GG7" t="s">
-        <v>466</v>
-      </c>
-      <c r="GH7" t="s">
-        <v>481</v>
-      </c>
-      <c r="GI7" t="s">
-        <v>456</v>
-      </c>
-      <c r="GJ7" t="s">
-        <v>483</v>
-      </c>
-      <c r="GK7" t="s">
-        <v>483</v>
-      </c>
-      <c r="GL7" t="s">
-        <v>474</v>
-      </c>
-      <c r="GM7" t="s">
-        <v>478</v>
-      </c>
-      <c r="GN7" t="s">
-        <v>463</v>
-      </c>
-      <c r="GO7" t="s">
-        <v>482</v>
-      </c>
-      <c r="GP7" t="s">
-        <v>473</v>
-      </c>
-      <c r="GQ7" t="s">
-        <v>466</v>
-      </c>
-      <c r="GR7" t="s">
-        <v>483</v>
-      </c>
-      <c r="GS7" t="s">
-        <v>456</v>
-      </c>
-      <c r="GT7" t="s">
-        <v>481</v>
-      </c>
-      <c r="GU7" t="s">
-        <v>463</v>
-      </c>
-      <c r="GV7" t="s">
-        <v>464</v>
-      </c>
-      <c r="GW7" t="s">
-        <v>473</v>
-      </c>
-      <c r="GX7" t="s">
-        <v>487</v>
-      </c>
-      <c r="GY7" t="s">
-        <v>480</v>
-      </c>
-      <c r="GZ7" t="s">
-        <v>473</v>
-      </c>
-      <c r="HA7" t="s">
-        <v>463</v>
-      </c>
-      <c r="HB7" t="s">
-        <v>464</v>
-      </c>
-      <c r="HC7" t="s">
-        <v>466</v>
-      </c>
-      <c r="HD7" t="s">
-        <v>481</v>
-      </c>
-      <c r="HE7" t="s">
-        <v>458</v>
-      </c>
-      <c r="HF7" t="s">
-        <v>461</v>
-      </c>
-      <c r="HG7" t="s">
-        <v>483</v>
-      </c>
-      <c r="HH7" t="s">
-        <v>456</v>
-      </c>
-      <c r="HI7" t="s">
-        <v>466</v>
-      </c>
-      <c r="HJ7" t="s">
-        <v>484</v>
-      </c>
-      <c r="HK7" t="s">
-        <v>481</v>
-      </c>
-      <c r="HL7" t="s">
-        <v>456</v>
-      </c>
-      <c r="HM7" t="s">
-        <v>459</v>
-      </c>
-      <c r="HN7" t="s">
-        <v>483</v>
-      </c>
-      <c r="HO7" t="s">
-        <v>492</v>
-      </c>
-      <c r="HP7" t="s">
-        <v>461</v>
-      </c>
-      <c r="HQ7" t="s">
-        <v>493</v>
-      </c>
-      <c r="HR7" t="s">
-        <v>471</v>
-      </c>
-      <c r="HS7" t="s">
-        <v>458</v>
-      </c>
-      <c r="HT7" t="s">
-        <v>458</v>
-      </c>
-      <c r="HU7" t="s">
-        <v>492</v>
-      </c>
-      <c r="HV7" t="s">
-        <v>477</v>
-      </c>
-      <c r="HW7" t="s">
-        <v>456</v>
-      </c>
-      <c r="HX7" t="s">
-        <v>466</v>
-      </c>
-      <c r="HY7" t="s">
-        <v>463</v>
-      </c>
-      <c r="HZ7" t="s">
-        <v>480</v>
-      </c>
-      <c r="IA7" t="s">
-        <v>482</v>
-      </c>
-      <c r="IB7" t="s">
-        <v>483</v>
-      </c>
-      <c r="IC7" t="s">
-        <v>451</v>
-      </c>
-      <c r="ID7" t="s">
-        <v>463</v>
-      </c>
-      <c r="IE7" t="s">
-        <v>459</v>
-      </c>
-      <c r="IF7" t="s">
-        <v>482</v>
-      </c>
-      <c r="IG7" t="s">
-        <v>475</v>
-      </c>
-      <c r="IH7" t="s">
-        <v>489</v>
-      </c>
-      <c r="II7" t="s">
-        <v>453</v>
-      </c>
-      <c r="IJ7" t="s">
-        <v>477</v>
-      </c>
-      <c r="IK7" t="s">
-        <v>497</v>
-      </c>
-      <c r="IL7" t="s">
-        <v>498</v>
-      </c>
-      <c r="IM7" t="s">
-        <v>499</v>
-      </c>
-      <c r="IN7" t="s">
-        <v>500</v>
-      </c>
-      <c r="IO7" t="s">
-        <v>501</v>
-      </c>
-      <c r="IP7" t="s">
-        <v>502</v>
-      </c>
-      <c r="IQ7" t="s">
-        <v>503</v>
-      </c>
-      <c r="IR7" t="s">
-        <v>505</v>
-      </c>
-      <c r="IS7" t="s">
-        <v>503</v>
-      </c>
-      <c r="IT7" t="s">
-        <v>507</v>
-      </c>
-      <c r="IU7" t="s">
-        <v>495</v>
-      </c>
-      <c r="IV7" t="s">
-        <v>485</v>
-      </c>
-      <c r="IW7" t="s">
-        <v>504</v>
-      </c>
-      <c r="IX7" t="s">
-        <v>508</v>
-      </c>
-      <c r="IY7" t="s">
-        <v>496</v>
-      </c>
-      <c r="IZ7" t="s">
-        <v>496</v>
-      </c>
-      <c r="JA7" t="s">
-        <v>453</v>
-      </c>
-      <c r="JB7" t="s">
-        <v>478</v>
-      </c>
-      <c r="JC7" t="s">
-        <v>475</v>
-      </c>
-      <c r="JD7" t="s">
-        <v>504</v>
+      <c r="JE7" t="s">
+        <v>511</v>
+      </c>
+      <c r="JF7" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
